--- a/simulation_data/one_step_algorithm/1s_error_level_11_percent_water_99.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_11_percent_water_99.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>90.36828264346669</v>
+        <v>90.01299735145233</v>
       </c>
       <c r="D2" t="n">
-        <v>1.133965982660069</v>
+        <v>1.037819257404177</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>88.96803031999633</v>
+        <v>88.93337320299464</v>
       </c>
       <c r="D3" t="n">
-        <v>1.111932912234008</v>
+        <v>1.255775094048929</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>88.12053916517499</v>
+        <v>87.90567127705641</v>
       </c>
       <c r="D4" t="n">
-        <v>1.014393310797626</v>
+        <v>1.299830189478049</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>87.06975258006642</v>
+        <v>87.07419755288724</v>
       </c>
       <c r="D5" t="n">
-        <v>1.101315167359034</v>
+        <v>1.262840040303413</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>85.80357018812587</v>
+        <v>86.10627730685637</v>
       </c>
       <c r="D6" t="n">
-        <v>1.246255197608828</v>
+        <v>1.103815647141495</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>84.79173462999206</v>
+        <v>84.87632531852191</v>
       </c>
       <c r="D7" t="n">
-        <v>1.188039236621584</v>
+        <v>1.287412014621212</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>83.85505093117476</v>
+        <v>83.87272595448816</v>
       </c>
       <c r="D8" t="n">
-        <v>1.130102746610842</v>
+        <v>1.191531894214568</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.98093652034736</v>
+        <v>82.92457835481505</v>
       </c>
       <c r="D9" t="n">
-        <v>1.274153367860851</v>
+        <v>1.443542405401846</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>81.7624280413749</v>
+        <v>82.02846316554538</v>
       </c>
       <c r="D10" t="n">
-        <v>1.201918089993624</v>
+        <v>1.185792791035258</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>81.0346850440659</v>
+        <v>80.99686994336567</v>
       </c>
       <c r="D11" t="n">
-        <v>1.441955430188414</v>
+        <v>1.413178227181081</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.89304520620486</v>
+        <v>80.20728277020616</v>
       </c>
       <c r="D12" t="n">
-        <v>1.335245598850478</v>
+        <v>1.098660043495815</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.84774995591694</v>
+        <v>78.85411346348238</v>
       </c>
       <c r="D13" t="n">
-        <v>1.219001645025403</v>
+        <v>1.314615265116903</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>77.99375002749855</v>
+        <v>78.14833794865174</v>
       </c>
       <c r="D14" t="n">
-        <v>1.516505322861458</v>
+        <v>1.518020297230434</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>76.76956618808798</v>
+        <v>77.11270386015538</v>
       </c>
       <c r="D15" t="n">
-        <v>1.419713347380746</v>
+        <v>1.322725901381581</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>76.17095818356101</v>
+        <v>75.89066086821111</v>
       </c>
       <c r="D16" t="n">
-        <v>1.331950378122726</v>
+        <v>1.5936708709269</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>74.84150909004019</v>
+        <v>74.80790122734872</v>
       </c>
       <c r="D17" t="n">
-        <v>1.505502728973221</v>
+        <v>1.47118534008646</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>73.94712873079497</v>
+        <v>73.93201788881569</v>
       </c>
       <c r="D18" t="n">
-        <v>1.303113412169833</v>
+        <v>1.621573213387377</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.73888323790413</v>
+        <v>73.26335472652572</v>
       </c>
       <c r="D19" t="n">
-        <v>1.75349256452651</v>
+        <v>1.515327239648753</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>72.34213521627508</v>
+        <v>71.95460520453952</v>
       </c>
       <c r="D20" t="n">
-        <v>1.61988924372459</v>
+        <v>1.550934186191682</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.89208221553911</v>
+        <v>71.00094156362509</v>
       </c>
       <c r="D21" t="n">
-        <v>1.366441400647776</v>
+        <v>1.438172343925037</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.85174642560955</v>
+        <v>70.08412674435385</v>
       </c>
       <c r="D22" t="n">
-        <v>1.926714363233324</v>
+        <v>1.447173958676445</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>69.11605796773659</v>
+        <v>69.05723302061621</v>
       </c>
       <c r="D23" t="n">
-        <v>1.50068289567136</v>
+        <v>1.825891393201412</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.87089377297656</v>
+        <v>67.97011959030748</v>
       </c>
       <c r="D24" t="n">
-        <v>1.699849416999798</v>
+        <v>1.719745464285308</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.10079148943983</v>
+        <v>66.90626240832236</v>
       </c>
       <c r="D25" t="n">
-        <v>1.65676247088789</v>
+        <v>1.513825548208481</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.79603116684066</v>
+        <v>65.88757148449734</v>
       </c>
       <c r="D26" t="n">
-        <v>1.706700564601028</v>
+        <v>1.95547012882033</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>65.11797046884351</v>
+        <v>64.81421770054517</v>
       </c>
       <c r="D27" t="n">
-        <v>1.847827985740648</v>
+        <v>1.649186531598818</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.83142926789275</v>
+        <v>63.88937310146168</v>
       </c>
       <c r="D28" t="n">
-        <v>1.666739300402104</v>
+        <v>1.528431561088368</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>62.92225486168922</v>
+        <v>62.88091838486687</v>
       </c>
       <c r="D29" t="n">
-        <v>1.87945922636544</v>
+        <v>1.778967537326687</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>61.94249138299678</v>
+        <v>62.06290581921245</v>
       </c>
       <c r="D30" t="n">
-        <v>1.817009756773088</v>
+        <v>1.717560891355724</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>60.88754072340878</v>
+        <v>60.81163924058973</v>
       </c>
       <c r="D31" t="n">
-        <v>1.582237705477251</v>
+        <v>1.659434203584305</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.14685542697764</v>
+        <v>59.91272318921894</v>
       </c>
       <c r="D32" t="n">
-        <v>1.979949093504136</v>
+        <v>1.744284906602985</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.13182602117344</v>
+        <v>59.09737106679196</v>
       </c>
       <c r="D33" t="n">
-        <v>1.88677262751078</v>
+        <v>1.635101357041472</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>57.80821843146611</v>
+        <v>57.90189724449468</v>
       </c>
       <c r="D34" t="n">
-        <v>2.097732128300562</v>
+        <v>1.802742907213926</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>56.81243664429024</v>
+        <v>56.8767664192591</v>
       </c>
       <c r="D35" t="n">
-        <v>1.897127329760512</v>
+        <v>1.907552094645729</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>55.95686685669287</v>
+        <v>55.67429461323341</v>
       </c>
       <c r="D36" t="n">
-        <v>2.149786880513017</v>
+        <v>1.960166764128499</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.19363228309729</v>
+        <v>54.9987136390326</v>
       </c>
       <c r="D37" t="n">
-        <v>1.989193238961566</v>
+        <v>2.056452188072503</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.24983572559739</v>
+        <v>53.80403454164594</v>
       </c>
       <c r="D38" t="n">
-        <v>1.894507857917731</v>
+        <v>2.157464308582128</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.79039842169058</v>
+        <v>52.75103935740687</v>
       </c>
       <c r="D39" t="n">
-        <v>1.864653721174882</v>
+        <v>1.941014747516109</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.70891732249952</v>
+        <v>52.210756141026</v>
       </c>
       <c r="D40" t="n">
-        <v>2.048826918176473</v>
+        <v>1.928366737363916</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.00151108036502</v>
+        <v>50.8141447826544</v>
       </c>
       <c r="D41" t="n">
-        <v>2.063906443815625</v>
+        <v>2.031181711456607</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.83594026492235</v>
+        <v>49.41908844108493</v>
       </c>
       <c r="D42" t="n">
-        <v>2.061882630410294</v>
+        <v>2.22758769343774</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.55797986210455</v>
+        <v>48.82977316781194</v>
       </c>
       <c r="D43" t="n">
-        <v>2.156894467497532</v>
+        <v>1.787039063945517</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.90138661941457</v>
+        <v>48.00328143778561</v>
       </c>
       <c r="D44" t="n">
-        <v>2.458036509722078</v>
+        <v>2.182041715075195</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.74760844404477</v>
+        <v>46.90668464642236</v>
       </c>
       <c r="D45" t="n">
-        <v>2.121608368899447</v>
+        <v>2.166324636873397</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.67715421402129</v>
+        <v>46.13599705689482</v>
       </c>
       <c r="D46" t="n">
-        <v>2.447435417039093</v>
+        <v>1.959598775215036</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.20152104189744</v>
+        <v>45.3226318689676</v>
       </c>
       <c r="D47" t="n">
-        <v>2.220028189420817</v>
+        <v>1.819689051620379</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>43.81372592599671</v>
+        <v>43.54473480678825</v>
       </c>
       <c r="D48" t="n">
-        <v>2.365523589743588</v>
+        <v>2.535688868198559</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.96330444404314</v>
+        <v>43.2770209599681</v>
       </c>
       <c r="D49" t="n">
-        <v>2.062330480287771</v>
+        <v>2.276684217613663</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.78386526742995</v>
+        <v>41.86563088353243</v>
       </c>
       <c r="D50" t="n">
-        <v>2.159093186260122</v>
+        <v>2.599000660559697</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.83103171473951</v>
+        <v>41.19959609953007</v>
       </c>
       <c r="D51" t="n">
-        <v>2.526612058860189</v>
+        <v>2.481434157504822</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.98940345545724</v>
+        <v>40.48951491405586</v>
       </c>
       <c r="D52" t="n">
-        <v>2.598676884587282</v>
+        <v>2.224813323746699</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.59073621610855</v>
+        <v>38.66206579068275</v>
       </c>
       <c r="D53" t="n">
-        <v>2.257438493572266</v>
+        <v>2.629135070511019</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.463934147754</v>
+        <v>38.15407863028699</v>
       </c>
       <c r="D54" t="n">
-        <v>2.143035605865195</v>
+        <v>2.504841720352326</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.76725824597577</v>
+        <v>37.16825353568812</v>
       </c>
       <c r="D55" t="n">
-        <v>2.336069382318089</v>
+        <v>2.465328205280357</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.6989911917549</v>
+        <v>35.97133081281608</v>
       </c>
       <c r="D56" t="n">
-        <v>2.36213526091659</v>
+        <v>2.550024406299548</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.08557938629398</v>
+        <v>35.14394602115602</v>
       </c>
       <c r="D57" t="n">
-        <v>2.451168806748594</v>
+        <v>2.572149419055822</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.79168321671997</v>
+        <v>33.33355003981941</v>
       </c>
       <c r="D58" t="n">
-        <v>2.495493192076278</v>
+        <v>2.712916077051944</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.68439726733268</v>
+        <v>32.67960551746471</v>
       </c>
       <c r="D59" t="n">
-        <v>2.317880044565432</v>
+        <v>2.379010316097195</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.3213104558862</v>
+        <v>32.27784165406919</v>
       </c>
       <c r="D60" t="n">
-        <v>2.611517954705262</v>
+        <v>2.510468581503477</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.05871194644419</v>
+        <v>30.98200370696375</v>
       </c>
       <c r="D61" t="n">
-        <v>2.639497630241888</v>
+        <v>2.770483852827164</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.79255878014765</v>
+        <v>29.66959053597437</v>
       </c>
       <c r="D62" t="n">
-        <v>2.905519441692949</v>
+        <v>2.45684464968228</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.18364860535327</v>
+        <v>28.99741822777823</v>
       </c>
       <c r="D63" t="n">
-        <v>2.647112249170599</v>
+        <v>2.693316607353221</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.90554144426509</v>
+        <v>28.18820817008229</v>
       </c>
       <c r="D64" t="n">
-        <v>2.718165882376053</v>
+        <v>2.860293018622231</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.22955971007629</v>
+        <v>26.96738708139492</v>
       </c>
       <c r="D65" t="n">
-        <v>2.561797372506262</v>
+        <v>2.928510480788583</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.46931727302164</v>
+        <v>25.81686485560133</v>
       </c>
       <c r="D66" t="n">
-        <v>2.198336291107327</v>
+        <v>2.771001079157149</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.77176718897246</v>
+        <v>24.90632840816652</v>
       </c>
       <c r="D67" t="n">
-        <v>2.712025973286265</v>
+        <v>2.465785454237684</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.79870579948344</v>
+        <v>23.65948154727081</v>
       </c>
       <c r="D68" t="n">
-        <v>2.647318235478638</v>
+        <v>3.080535517307521</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.4092798044481</v>
+        <v>22.92691801179171</v>
       </c>
       <c r="D69" t="n">
-        <v>2.60349401359227</v>
+        <v>2.833112703297487</v>
       </c>
     </row>
   </sheetData>
